--- a/data/case1/2/details_13.xlsx
+++ b/data/case1/2/details_13.xlsx
@@ -59,14 +59,14 @@
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="4" max="4" width="2.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
-    <col min="10" max="10" width="3.140625" customWidth="true"/>
-    <col min="11" max="11" width="7.7109375" customWidth="true"/>
+    <col min="9" max="9" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="5.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="7.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
     <col min="14" max="14" width="4.7109375" customWidth="true"/>
@@ -74,37 +74,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0">
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0">
         <v>3</v>
       </c>
       <c r="H1" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0">
-        <v>24</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="J1" s="0">
-        <v>32</v>
+        <v>0.019</v>
       </c>
       <c r="K1" s="0">
-        <v>0.030949999999999998</v>
+        <v>0.078</v>
       </c>
       <c r="L1" s="0">
         <v>0.063049999999999995</v>
